--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -503,7 +503,7 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -913,6 +913,159 @@
     <t>./ContactPoints</t>
   </si>
   <si>
+    <t>Organization.telecom.id</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>Organization.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other 【JP_Patient.telecomを参照。】</t>
+  </si>
+  <si>
+    <t>連絡先用通信フォーム - どの通信システムを使用するには接点が必要ですか。</t>
+  </si>
+  <si>
+    <t>連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
+  </si>
+  <si>
+    <t>「連絡先のための通信フォーム。」</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Organization.telecom.value</t>
+  </si>
+  <si>
+    <t>実際の連絡先の詳細</t>
+  </si>
+  <si>
+    <t>指定されたコミュニケーションシステムに意味がある形式での実際の連絡先の詳細（電話番号または電子メールアドレス）を提供してください。</t>
+  </si>
+  <si>
+    <t>連絡先の番号やメールアドレス</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】homeは使用しないこと。</t>
+  </si>
+  <si>
+    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+  </si>
+  <si>
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
+　- work : 職場
+　- temp : 一時的
+　- old : 以前の
+　- mobile : モバイル機器</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>「接点の使用。」(Setten no shiyō.)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Organization.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
+  </si>
+  <si>
+    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
+  </si>
+  <si>
+    <t>連絡先の使用順序（1 = 最高）</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom.period</t>
+  </si>
+  <si>
+    <t>「コンタクトポイントが使用されている時間帯」</t>
+  </si>
+  <si>
+    <t>「接点が使用されていた/現在使用中である時間期間」</t>
+  </si>
+  <si>
+    <t>連絡先が使用されていた/されている期間</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
     <t>Organization.address</t>
   </si>
   <si>
@@ -949,6 +1102,298 @@
     <t>./PrimaryAddress and ./OtherAddresses</t>
   </si>
   <si>
+    <t>Organization.address.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> work | temp | old | billing - purpose of this address　住所の用途 【JP_Patient.address参照】使用コード「home」は使用しない。</t>
+  </si>
+  <si>
+    <t>The purpose of this address.
+住所の用途</t>
+  </si>
+  <si>
+    <t>住所の用途をValueSet(AddressUse)より選択する。  
+- work : 職場
+- temp : 一時的
+- old : 以前の
+- billing : 請求書、インボイス、領収書などの送付用</t>
+  </si>
+  <si>
+    <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>アドレスの使用。 / The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>./AddressPurpose</t>
+  </si>
+  <si>
+    <t>Organization.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>住所（訪問できる住所）と郵送先住所（私書箱や気付住所など）を区別する。ほとんどのアドレスは両方。</t>
+  </si>
+  <si>
+    <t>住所の種類をValueSet(AddressType)より選択する。  
+- postal : 郵送先 - 私書箱、気付の住所
+- physical : 訪れることのできる物理的な住所
+- both : postalとphysicalの両方</t>
+  </si>
+  <si>
+    <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Organization.address.text</t>
+  </si>
+  <si>
+    <t>住所のテキスト表現 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>表示するアドレス全体を指定する  
+例：郵便ラベル。これは、特定の部品の代わりに、または特定の部品と同様に提供される場合がある。</t>
+  </si>
+  <si>
+    <t>テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
+- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+- 郵便番号は含めない。  
+例：東京都文京区本郷7-3-1</t>
+  </si>
+  <si>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>東京都文京区本郷7-3-1</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Organization.address.line</t>
+  </si>
+  <si>
+    <t>ストリート名や番地など 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>このコンポーネントには、家番号、アパート番号、通りの名前、通りの方向、P.O。が含まれる。ボックス番号、配達のヒント、および同様の住所情報など。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。  
+英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。  
+繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。  
+例：本郷7-3-1  
+例：大字石神９７６  
+例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
+  </si>
+  <si>
+    <t>本郷7-3-1</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>./StreetAddress (newline delimitted)</t>
+  </si>
+  <si>
+    <t>Organization.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>市区町村名 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>n市、町、郊外、村、その他のコミュニティまたは配達センターの名前。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
+  </si>
+  <si>
+    <t>文京区</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>./Jurisdiction</t>
+  </si>
+  <si>
+    <t>Organization.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>地区名 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】日本の住所では使用しない。</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>Organization.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>国の次の地区単位 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>国の主権が制限されている国のサブユニット。日本の場合、都道府県名。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
+  </si>
+  <si>
+    <t>東京都</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>./Region</t>
+  </si>
+  <si>
+    <t>Organization.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>郵便番号 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
+  </si>
+  <si>
+    <t>113-8655</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>./PostalIdentificationCode</t>
+  </si>
+  <si>
+    <t>Organization.address.country</t>
+  </si>
+  <si>
+    <t>国名またはISO 3166コード　(ISO 3166 2 or 3文字こーど)</t>
+  </si>
+  <si>
+    <t>国-一般的に理解されている、または一般的に受け入れられている国の国名かコード。</t>
+  </si>
+  <si>
+    <t>ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。  ISO 3166の2文字または3文字のコード.  日本であれば、jpまたはjpn</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>./Country</t>
+  </si>
+  <si>
+    <t>Organization.address.period</t>
+  </si>
+  <si>
+    <t>住所が使用されていた（いる）期間</t>
+  </si>
+  <si>
+    <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
+  </si>
+  <si>
+    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
     <t>Organization.partOf</t>
   </si>
   <si>
@@ -992,19 +1437,7 @@
     <t>Organization.contact.id</t>
   </si>
   <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
     <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Organization.contact.modifierExtension</t>
@@ -1429,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1456,13 +1889,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="14.66796875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.0" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1472,7 +1905,7 @@
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
@@ -6536,7 +6969,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6548,20 +6981,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
@@ -6609,28 +7038,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6638,21 +7067,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6661,23 +7090,21 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -6713,40 +7140,40 @@
         <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6754,10 +7181,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6768,7 +7195,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -6777,23 +7204,21 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6817,13 +7242,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -6841,28 +7266,28 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -6870,10 +7295,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6893,19 +7318,23 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
       </c>
@@ -6953,7 +7382,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -6965,16 +7394,16 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -6982,44 +7411,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7043,13 +7474,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7067,28 +7498,28 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7096,46 +7527,44 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7183,25 +7612,25 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7212,10 +7641,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7235,21 +7664,21 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7273,13 +7702,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7297,7 +7726,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7312,13 +7741,13 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7326,10 +7755,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7340,7 +7769,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7352,19 +7781,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7413,28 +7842,28 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>106</v>
+        <v>338</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7442,10 +7871,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7456,7 +7885,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7468,18 +7897,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>38</v>
       </c>
@@ -7527,25 +7954,25 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>143</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>338</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7556,21 +7983,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7582,18 +8009,18 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>341</v>
+        <v>146</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>38</v>
       </c>
@@ -7629,37 +8056,37 @@
         <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>344</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -7670,10 +8097,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7684,31 +8111,31 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7733,13 +8160,13 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -7757,30 +8184,2208 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AI55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="H58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AK65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AM55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-organization.xlsx
@@ -995,7 +995,7 @@
     <t>Organization.telecom.use</t>
   </si>
   <si>
-    <t xml:space="preserve"> work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】homeは使用しないこと。</t>
+    <t>work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】homeは使用しないこと。</t>
   </si>
   <si>
     <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
@@ -1111,7 +1111,7 @@
     <t>Organization.address.use</t>
   </si>
   <si>
-    <t xml:space="preserve"> work | temp | old | billing - purpose of this address　住所の用途 【JP_Patient.address参照】使用コード「home」は使用しない。</t>
+    <t>work | temp | old | billing - purpose of this address　住所の用途 【JP_Patient.address参照】使用コード「home」は使用しない。</t>
   </si>
   <si>
     <t>The purpose of this address.
